--- a/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
+++ b/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\HOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\KY\elec\HOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F45B545-2B5C-4709-A9B3-53A6EDF8F65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C9124D6-E7EE-4FDD-A296-FD3C8A8DEA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="1" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
+    <workbookView xWindow="2340" yWindow="1020" windowWidth="17460" windowHeight="16980" activeTab="1" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>HOC Hydro Opportunity Cost</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Opportunity Cost</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
   </si>
 </sst>
 </file>
@@ -113,9 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -134,9 +138,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -174,7 +178,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -280,7 +284,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -422,7 +426,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -430,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7655D3-EAD7-4119-BC82-55DAF4FF9FE5}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
@@ -438,12 +442,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -451,7 +461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -459,27 +469,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -497,7 +507,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +525,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
+++ b/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\KY\elec\HOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C9124D6-E7EE-4FDD-A296-FD3C8A8DEA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16A21DE7-6FFE-4EEC-B999-562B89CE9B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1020" windowWidth="17460" windowHeight="16980" activeTab="1" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
+    <workbookView xWindow="2340" yWindow="1170" windowWidth="23895" windowHeight="16830" activeTab="1" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="2">
-        <v>45406</v>
+        <v>45407</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -525,7 +525,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
+++ b/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\KY\elec\HOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16A21DE7-6FFE-4EEC-B999-562B89CE9B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B96E8F7F-E5AF-4B6B-B4AE-C1F10F1F4A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1170" windowWidth="23895" windowHeight="16830" activeTab="1" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="2" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="HOC" sheetId="2" r:id="rId2"/>
+    <sheet name="custom state value" sheetId="3" r:id="rId2"/>
+    <sheet name="HOC" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="114">
   <si>
     <t>HOC Hydro Opportunity Cost</t>
   </si>
@@ -72,14 +73,317 @@
     <t>Opportunity Cost</t>
   </si>
   <si>
+    <t>Folder Name</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>BEST MATCH</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
     <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +398,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,15 +432,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -434,64 +763,893 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7655D3-EAD7-4119-BC82-55DAF4FF9FE5}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2">
-        <v>45407</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="3">
+        <v>45456</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="B2" s="4" t="str">
+        <f>LOOKUP(B1,K1:L50,L1:L50)</f>
+        <v>KY</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="K4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B10" t="s">
         <v>9</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="K11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="K12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="K13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="K14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="K15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="K16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K38" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K44" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="11:12" x14ac:dyDescent="0.75">
+      <c r="K50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L1:L50">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2D4729-8AD4-452B-B3BB-F31BE470592C}">
+  <dimension ref="A1:B56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B52">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B54">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B56">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -499,7 +1657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07603EFD-23A5-4655-B8CC-F4F30B2ED0E6}">
   <sheetPr>
     <tabColor theme="3" tint="-0.499984740745262"/>
@@ -510,17 +1668,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>11</v>
       </c>

--- a/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
+++ b/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\KY\elec\HOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B96E8F7F-E5AF-4B6B-B4AE-C1F10F1F4A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F82D35C9-E73F-4F00-B1CF-AD4DB955B87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="2" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
+    <workbookView xWindow="1485" yWindow="1980" windowWidth="13500" windowHeight="14985" activeTab="2" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -769,9 +769,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,7 +779,7 @@
         <v>81</v>
       </c>
       <c r="C1" s="3">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -795,7 +795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="str">
         <f>LOOKUP(B1,K1:L50,L1:L50)</f>
         <v>KY</v>
@@ -815,7 +815,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -829,7 +829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K4" s="2" t="s">
         <v>67</v>
       </c>
@@ -837,7 +837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -851,7 +851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -862,7 +862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -873,7 +873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -884,7 +884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -895,7 +895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -906,7 +906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K11" s="2" t="s">
         <v>74</v>
       </c>
@@ -914,7 +914,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K12" s="2" t="s">
         <v>76</v>
       </c>
@@ -922,7 +922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K13" s="2" t="s">
         <v>77</v>
       </c>
@@ -930,7 +930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K14" s="2" t="s">
         <v>78</v>
       </c>
@@ -938,7 +938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K15" s="2" t="s">
         <v>79</v>
       </c>
@@ -946,7 +946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K16" s="2" t="s">
         <v>80</v>
       </c>
@@ -954,7 +954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="17" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K17" s="2" t="s">
         <v>81</v>
       </c>
@@ -962,7 +962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="18" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K18" s="2" t="s">
         <v>82</v>
       </c>
@@ -970,7 +970,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="19" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K19" s="2" t="s">
         <v>83</v>
       </c>
@@ -978,7 +978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="20" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K20" s="2" t="s">
         <v>84</v>
       </c>
@@ -986,7 +986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="21" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K21" s="2" t="s">
         <v>85</v>
       </c>
@@ -994,7 +994,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="22" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K22" s="2" t="s">
         <v>86</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="23" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K23" s="2" t="s">
         <v>87</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="24" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K24" s="2" t="s">
         <v>88</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="25" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K25" s="2" t="s">
         <v>89</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="26" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K26" s="2" t="s">
         <v>90</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="27" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K27" s="2" t="s">
         <v>91</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="28" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K28" s="2" t="s">
         <v>92</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="29" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K29" s="2" t="s">
         <v>93</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="30" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K30" s="2" t="s">
         <v>94</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="31" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K31" s="2" t="s">
         <v>95</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="32" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K32" s="2" t="s">
         <v>96</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="33" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K33" s="2" t="s">
         <v>97</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="34" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K34" s="2" t="s">
         <v>62</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="35" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K35" s="2" t="s">
         <v>98</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="36" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K36" s="2" t="s">
         <v>99</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="37" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K37" s="2" t="s">
         <v>100</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="38" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K38" s="2" t="s">
         <v>101</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="39" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K39" s="2" t="s">
         <v>102</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="40" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K40" s="2" t="s">
         <v>103</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="41" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K41" s="2" t="s">
         <v>104</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="42" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K42" s="2" t="s">
         <v>105</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="43" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K43" s="2" t="s">
         <v>106</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="44" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K44" s="2" t="s">
         <v>107</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="45" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K45" s="2" t="s">
         <v>108</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="46" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K46" s="2" t="s">
         <v>109</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="47" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K47" s="2" t="s">
         <v>110</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="48" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K48" s="2" t="s">
         <v>111</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="49" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K49" s="2" t="s">
         <v>112</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="50" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K50" s="2" t="s">
         <v>113</v>
       </c>
@@ -1239,22 +1239,22 @@
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1302,12 +1302,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1427,12 +1427,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -1632,22 +1632,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>70</v>
       </c>
@@ -1665,25 +1665,26 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <f>INDEX('custom state value'!B:B,MATCH(About!$B$2,'custom state value'!A:A,0))</f>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
+++ b/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\KY\elec\HOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F82D35C9-E73F-4F00-B1CF-AD4DB955B87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FD09990-D748-44D0-85DE-FDAEA203FB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="1980" windowWidth="13500" windowHeight="14985" activeTab="2" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="11635" windowHeight="10080" activeTab="1" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -769,9 +769,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,7 +779,7 @@
         <v>81</v>
       </c>
       <c r="C1" s="3">
-        <v>45457</v>
+        <v>45460</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -795,7 +795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B2" s="4" t="str">
         <f>LOOKUP(B1,K1:L50,L1:L50)</f>
         <v>KY</v>
@@ -815,7 +815,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -829,7 +829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
       <c r="K4" s="2" t="s">
         <v>67</v>
       </c>
@@ -837,7 +837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -851,7 +851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -862,7 +862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -873,7 +873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -884,7 +884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -895,7 +895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -906,7 +906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
       <c r="K11" s="2" t="s">
         <v>74</v>
       </c>
@@ -914,7 +914,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
       <c r="K12" s="2" t="s">
         <v>76</v>
       </c>
@@ -922,7 +922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
       <c r="K13" s="2" t="s">
         <v>77</v>
       </c>
@@ -930,7 +930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
       <c r="K14" s="2" t="s">
         <v>78</v>
       </c>
@@ -938,7 +938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
       <c r="K15" s="2" t="s">
         <v>79</v>
       </c>
@@ -946,7 +946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.75">
       <c r="K16" s="2" t="s">
         <v>80</v>
       </c>
@@ -954,7 +954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K17" s="2" t="s">
         <v>81</v>
       </c>
@@ -962,7 +962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K18" s="2" t="s">
         <v>82</v>
       </c>
@@ -970,7 +970,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K19" s="2" t="s">
         <v>83</v>
       </c>
@@ -978,7 +978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K20" s="2" t="s">
         <v>84</v>
       </c>
@@ -986,7 +986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K21" s="2" t="s">
         <v>85</v>
       </c>
@@ -994,7 +994,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K22" s="2" t="s">
         <v>86</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K23" s="2" t="s">
         <v>87</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K24" s="2" t="s">
         <v>88</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K25" s="2" t="s">
         <v>89</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K26" s="2" t="s">
         <v>90</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K27" s="2" t="s">
         <v>91</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K28" s="2" t="s">
         <v>92</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K29" s="2" t="s">
         <v>93</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K30" s="2" t="s">
         <v>94</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K31" s="2" t="s">
         <v>95</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K32" s="2" t="s">
         <v>96</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K33" s="2" t="s">
         <v>97</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K34" s="2" t="s">
         <v>62</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K35" s="2" t="s">
         <v>98</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K36" s="2" t="s">
         <v>99</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K37" s="2" t="s">
         <v>100</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K38" s="2" t="s">
         <v>101</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K39" s="2" t="s">
         <v>102</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K40" s="2" t="s">
         <v>103</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K41" s="2" t="s">
         <v>104</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K42" s="2" t="s">
         <v>105</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K43" s="2" t="s">
         <v>106</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K44" s="2" t="s">
         <v>107</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K45" s="2" t="s">
         <v>108</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K46" s="2" t="s">
         <v>109</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K47" s="2" t="s">
         <v>110</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K48" s="2" t="s">
         <v>111</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K49" s="2" t="s">
         <v>112</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="11:12" x14ac:dyDescent="0.75">
       <c r="K50" s="2" t="s">
         <v>113</v>
       </c>
@@ -1238,23 +1238,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2D4729-8AD4-452B-B3BB-F31BE470592C}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1302,12 +1302,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1427,12 +1427,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -1592,15 +1592,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>56</v>
       </c>
       <c r="B46">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -1632,22 +1632,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B52">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B54">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B55">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B56">
         <v>70</v>
       </c>
@@ -1664,21 +1664,21 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>11</v>
       </c>

--- a/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
+++ b/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\KY\elec\HOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FD09990-D748-44D0-85DE-FDAEA203FB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8085A540-8D4F-49F4-BBEB-E02806820521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="11635" windowHeight="10080" activeTab="1" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
+    <workbookView xWindow="2135" yWindow="2135" windowWidth="14400" windowHeight="7455" activeTab="1" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -779,7 +779,7 @@
         <v>81</v>
       </c>
       <c r="C1" s="3">
-        <v>45460</v>
+        <v>45477</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1236,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2D4729-8AD4-452B-B3BB-F31BE470592C}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1392,7 +1392,7 @@
         <v>30</v>
       </c>
       <c r="B20">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.75">
@@ -1469,7 +1469,7 @@
         <v>40</v>
       </c>
       <c r="B30">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.75">
@@ -1525,7 +1525,7 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.75">
@@ -1565,7 +1565,7 @@
         <v>52</v>
       </c>
       <c r="B42">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.75">
@@ -1573,7 +1573,7 @@
         <v>53</v>
       </c>
       <c r="B43">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.75">
@@ -1597,7 +1597,7 @@
         <v>56</v>
       </c>
       <c r="B46">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.75">
@@ -1605,7 +1605,7 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.75">
@@ -1629,26 +1629,6 @@
         <v>60</v>
       </c>
       <c r="B50">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B52">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B54">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B55">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B56">
         <v>70</v>
       </c>
     </row>
@@ -1683,7 +1663,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <f>INDEX('custom state value'!B:B,MATCH(About!$B$2,'custom state value'!A:A,0))</f>
+        <f>SUMIFS('custom state value'!B:B,'custom state value'!A:A,About!B2)</f>
         <v>35</v>
       </c>
     </row>

--- a/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
+++ b/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\KY\elec\HOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8085A540-8D4F-49F4-BBEB-E02806820521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{262DF2CC-460F-4AC0-B7E1-151AE2D59DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2135" yWindow="2135" windowWidth="14400" windowHeight="7455" activeTab="1" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
+    <workbookView xWindow="2340" yWindow="1980" windowWidth="14925" windowHeight="16020" activeTab="2" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -769,9 +769,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,7 +779,7 @@
         <v>81</v>
       </c>
       <c r="C1" s="3">
-        <v>45477</v>
+        <v>45495</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -795,7 +795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="str">
         <f>LOOKUP(B1,K1:L50,L1:L50)</f>
         <v>KY</v>
@@ -815,7 +815,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -829,7 +829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K4" s="2" t="s">
         <v>67</v>
       </c>
@@ -837,7 +837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -851,7 +851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -862,7 +862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -873,7 +873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -884,7 +884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -895,7 +895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -906,7 +906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K11" s="2" t="s">
         <v>74</v>
       </c>
@@ -914,7 +914,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K12" s="2" t="s">
         <v>76</v>
       </c>
@@ -922,7 +922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K13" s="2" t="s">
         <v>77</v>
       </c>
@@ -930,7 +930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K14" s="2" t="s">
         <v>78</v>
       </c>
@@ -938,7 +938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K15" s="2" t="s">
         <v>79</v>
       </c>
@@ -946,7 +946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K16" s="2" t="s">
         <v>80</v>
       </c>
@@ -954,7 +954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="17" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K17" s="2" t="s">
         <v>81</v>
       </c>
@@ -962,7 +962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="18" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K18" s="2" t="s">
         <v>82</v>
       </c>
@@ -970,7 +970,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="19" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K19" s="2" t="s">
         <v>83</v>
       </c>
@@ -978,7 +978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="20" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K20" s="2" t="s">
         <v>84</v>
       </c>
@@ -986,7 +986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="21" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K21" s="2" t="s">
         <v>85</v>
       </c>
@@ -994,7 +994,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="22" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K22" s="2" t="s">
         <v>86</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="23" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K23" s="2" t="s">
         <v>87</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="24" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K24" s="2" t="s">
         <v>88</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="25" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K25" s="2" t="s">
         <v>89</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="26" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K26" s="2" t="s">
         <v>90</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="27" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K27" s="2" t="s">
         <v>91</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="28" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K28" s="2" t="s">
         <v>92</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="29" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K29" s="2" t="s">
         <v>93</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="30" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K30" s="2" t="s">
         <v>94</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="31" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K31" s="2" t="s">
         <v>95</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="32" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K32" s="2" t="s">
         <v>96</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="33" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K33" s="2" t="s">
         <v>97</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="34" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K34" s="2" t="s">
         <v>62</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="35" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K35" s="2" t="s">
         <v>98</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="36" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K36" s="2" t="s">
         <v>99</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="37" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K37" s="2" t="s">
         <v>100</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="38" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K38" s="2" t="s">
         <v>101</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="39" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K39" s="2" t="s">
         <v>102</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="40" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K40" s="2" t="s">
         <v>103</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="41" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K41" s="2" t="s">
         <v>104</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="42" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K42" s="2" t="s">
         <v>105</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="43" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K43" s="2" t="s">
         <v>106</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="44" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K44" s="2" t="s">
         <v>107</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="45" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K45" s="2" t="s">
         <v>108</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="46" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K46" s="2" t="s">
         <v>109</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="47" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K47" s="2" t="s">
         <v>110</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="48" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K48" s="2" t="s">
         <v>111</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="49" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K49" s="2" t="s">
         <v>112</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="50" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K50" s="2" t="s">
         <v>113</v>
       </c>
@@ -1238,23 +1238,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2D4729-8AD4-452B-B3BB-F31BE470592C}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1302,12 +1302,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1427,12 +1427,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -1644,27 +1644,26 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <f>SUMIFS('custom state value'!B:B,'custom state value'!A:A,About!B2)</f>
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
+++ b/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\KY\elec\HOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{262DF2CC-460F-4AC0-B7E1-151AE2D59DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B72DA40-6C37-4127-BB94-6D4CD7CFF374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1980" windowWidth="14925" windowHeight="16020" activeTab="2" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
+    <workbookView xWindow="10" yWindow="730" windowWidth="19190" windowHeight="10070" activeTab="2" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -779,7 +779,7 @@
         <v>81</v>
       </c>
       <c r="C1" s="3">
-        <v>45495</v>
+        <v>45497</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1663,7 +1663,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
+++ b/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\KY\elec\HOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B72DA40-6C37-4127-BB94-6D4CD7CFF374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36B9323B-D249-4360-8D28-DC48AC899985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="730" windowWidth="19190" windowHeight="10070" activeTab="2" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="16110" windowHeight="14565" activeTab="1" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -779,7 +779,7 @@
         <v>81</v>
       </c>
       <c r="C1" s="3">
-        <v>45497</v>
+        <v>45499</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1238,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2D4729-8AD4-452B-B3BB-F31BE470592C}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,7 +1275,7 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1283,7 +1283,7 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1320,7 +1320,7 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1328,7 +1328,7 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1336,7 +1336,7 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1400,7 +1400,7 @@
         <v>31</v>
       </c>
       <c r="B21">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1493,7 +1493,7 @@
         <v>43</v>
       </c>
       <c r="B33">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1581,7 +1581,7 @@
         <v>54</v>
       </c>
       <c r="B44">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
         <v>60</v>
       </c>
       <c r="B50">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1644,8 +1644,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,7 +1663,8 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <f>INDEX('custom state value'!B:B,MATCH(About!B2,'custom state value'!A:A,0))</f>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
+++ b/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\KY\elec\HOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36B9323B-D249-4360-8D28-DC48AC899985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAE7C6C2-22F8-4816-B2BD-3CCD1E43B4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="16110" windowHeight="14565" activeTab="1" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="23865" windowHeight="16230" activeTab="2" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +411,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -429,18 +436,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -779,7 +789,7 @@
         <v>81</v>
       </c>
       <c r="C1" s="3">
-        <v>45499</v>
+        <v>45505</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1236,13 +1246,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2D4729-8AD4-452B-B3BB-F31BE470592C}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="9" width="9.140625" style="5"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1259,7 +1272,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1267,7 +1280,7 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1291,7 +1304,7 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1299,7 +1312,7 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1312,7 +1325,7 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1320,7 +1333,7 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1328,7 +1341,7 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1336,7 +1349,7 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1344,7 +1357,7 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1360,7 +1373,7 @@
         <v>26</v>
       </c>
       <c r="B16">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1376,7 +1389,7 @@
         <v>28</v>
       </c>
       <c r="B18">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1392,7 +1405,7 @@
         <v>30</v>
       </c>
       <c r="B20">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1400,7 +1413,7 @@
         <v>31</v>
       </c>
       <c r="B21">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1408,7 +1421,7 @@
         <v>32</v>
       </c>
       <c r="B22">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1416,7 +1429,7 @@
         <v>33</v>
       </c>
       <c r="B23">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,7 +1458,7 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1461,7 +1474,7 @@
         <v>39</v>
       </c>
       <c r="B29">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1469,7 +1482,7 @@
         <v>40</v>
       </c>
       <c r="B30">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,7 +1490,7 @@
         <v>41</v>
       </c>
       <c r="B31">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1485,7 +1498,7 @@
         <v>42</v>
       </c>
       <c r="B32">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1493,7 +1506,7 @@
         <v>43</v>
       </c>
       <c r="B33">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1509,7 +1522,7 @@
         <v>45</v>
       </c>
       <c r="B35">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1517,7 +1530,7 @@
         <v>46</v>
       </c>
       <c r="B36">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1525,7 +1538,7 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1546,7 @@
         <v>48</v>
       </c>
       <c r="B38">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1541,7 +1554,7 @@
         <v>49</v>
       </c>
       <c r="B39">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1549,7 +1562,7 @@
         <v>50</v>
       </c>
       <c r="B40">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1557,7 +1570,7 @@
         <v>51</v>
       </c>
       <c r="B41">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1565,7 +1578,7 @@
         <v>52</v>
       </c>
       <c r="B42">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1586,7 @@
         <v>53</v>
       </c>
       <c r="B43">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1581,7 +1594,7 @@
         <v>54</v>
       </c>
       <c r="B44">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1597,7 +1610,7 @@
         <v>56</v>
       </c>
       <c r="B46">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1618,7 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +1642,7 @@
         <v>60</v>
       </c>
       <c r="B50">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1644,7 +1657,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1663,7 +1676,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <f>INDEX('custom state value'!B:B,MATCH(About!B2,'custom state value'!A:A,0))</f>
+        <f>IFERROR(INDEX('custom state value'!B:B,MATCH(About!B2,'custom state value'!A:A,0)),35)</f>
         <v>35</v>
       </c>
     </row>

--- a/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
+++ b/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\KY\elec\HOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAE7C6C2-22F8-4816-B2BD-3CCD1E43B4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA0B498A-CCF9-4788-A0E3-5157A5504E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="23865" windowHeight="16230" activeTab="2" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="12150" activeTab="2" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -789,7 +789,7 @@
         <v>81</v>
       </c>
       <c r="C1" s="3">
-        <v>45505</v>
+        <v>45509</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>

--- a/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
+++ b/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\KY\elec\HOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA0B498A-CCF9-4788-A0E3-5157A5504E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B60F182-C4CF-4A86-B9ED-1CCEF26DB6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="12150" activeTab="2" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="14205" windowHeight="16905" activeTab="1" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -789,7 +789,7 @@
         <v>81</v>
       </c>
       <c r="C1" s="3">
-        <v>45509</v>
+        <v>45530</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1248,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2D4729-8AD4-452B-B3BB-F31BE470592C}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,7 +1349,7 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1578,7 +1578,7 @@
         <v>52</v>
       </c>
       <c r="B42">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1618,7 +1618,7 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1657,7 +1657,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
+++ b/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\KY\elec\HOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B60F182-C4CF-4A86-B9ED-1CCEF26DB6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E2C4188-29F0-40A9-8CC8-64F08343D230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="14205" windowHeight="16905" activeTab="1" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
+    <workbookView xWindow="300" yWindow="0" windowWidth="19875" windowHeight="16965" activeTab="1" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -789,7 +789,7 @@
         <v>81</v>
       </c>
       <c r="C1" s="3">
-        <v>45530</v>
+        <v>45616</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1288,7 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1349,7 +1349,7 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1514,7 +1514,7 @@
         <v>44</v>
       </c>
       <c r="B34">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">

--- a/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
+++ b/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\KY\elec\HOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E2C4188-29F0-40A9-8CC8-64F08343D230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7FCE6DC-F7E2-4A76-87C9-7688B14CBF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="0" windowWidth="19875" windowHeight="16965" activeTab="1" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
+    <workbookView xWindow="1320" yWindow="540" windowWidth="17295" windowHeight="16485" activeTab="1" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -789,7 +789,7 @@
         <v>81</v>
       </c>
       <c r="C1" s="3">
-        <v>45616</v>
+        <v>45730</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1248,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2D4729-8AD4-452B-B3BB-F31BE470592C}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,7 +1538,7 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1570,7 +1570,7 @@
         <v>51</v>
       </c>
       <c r="B41">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1618,7 +1618,7 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">

--- a/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
+++ b/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\KY\elec\HOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7FCE6DC-F7E2-4A76-87C9-7688B14CBF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C2E90B1-381A-47A2-B420-864529EFF2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="540" windowWidth="17295" windowHeight="16485" activeTab="1" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -789,7 +789,7 @@
         <v>81</v>
       </c>
       <c r="C1" s="3">
-        <v>45730</v>
+        <v>45744</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,7 +1618,7 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">

--- a/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
+++ b/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\KY\elec\HOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C2E90B1-381A-47A2-B420-864529EFF2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65F4B4C8-F963-41F9-AD9E-4F25E875757B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
   </bookViews>
@@ -789,7 +789,7 @@
         <v>81</v>
       </c>
       <c r="C1" s="3">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1248,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2D4729-8AD4-452B-B3BB-F31BE470592C}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,7 +1349,7 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
